--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H2">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>5.805106021349999</v>
+        <v>2.723266447301333</v>
       </c>
       <c r="R2">
-        <v>52.24595419214999</v>
+        <v>24.50939802571199</v>
       </c>
       <c r="S2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="T2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H3">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>127.03291362685</v>
+        <v>28.23492509427333</v>
       </c>
       <c r="R3">
-        <v>1143.29622264165</v>
+        <v>254.11432584846</v>
       </c>
       <c r="S3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="T3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H4">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>82.35430361966</v>
+        <v>22.90235997973533</v>
       </c>
       <c r="R4">
-        <v>741.18873257694</v>
+        <v>206.121239817618</v>
       </c>
       <c r="S4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="T4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H5">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.8803613255450001</v>
+        <v>0.4351026727333333</v>
       </c>
       <c r="R5">
-        <v>7.923251929905001</v>
+        <v>3.9159240546</v>
       </c>
       <c r="S5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="T5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
     </row>
   </sheetData>
